--- a/자재일정.xlsx
+++ b/자재일정.xlsx
@@ -584,4 +584,291 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D2343B8A9FD24C4E9605B93F769D6676" ma:contentTypeVersion="18" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="053e41415755f7f1d5bd5e726ea9f2de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32374486-2d69-476f-9a17-cedceccff96d" xmlns:ns3="774f2d31-3e01-4b10-bc59-4c77373d4880" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba18532f951a6530eb2e6b98c9e48c11" ns2:_="" ns3:_="">
+    <xsd:import namespace="32374486-2d69-476f-9a17-cedceccff96d"/>
+    <xsd:import namespace="774f2d31-3e01-4b10-bc59-4c77373d4880"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32374486-2d69-476f-9a17-cedceccff96d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="이미지 태그" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9f910dd0-6eb5-4878-af57-21ffa4d0e612" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="774f2d31-3e01-4b10-bc59-4c77373d4880" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="공유 대상" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="세부 정보 공유" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7f4c3dbf-6622-4d21-ac84-a76220fb8b5d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="774f2d31-3e01-4b10-bc59-4c77373d4880">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="774f2d31-3e01-4b10-bc59-4c77373d4880" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32374486-2d69-476f-9a17-cedceccff96d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2554E80C-03A3-44DC-87C2-49638C0005DF}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2224A1FA-A64A-4EF7-8A07-04FE2C1CBA58}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F039FA2-17AB-47ED-AE0B-53FB08A310E6}"/>
 </file>
--- a/자재일정.xlsx
+++ b/자재일정.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OD0003\Downloads\"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,12 +497,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -554,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -587,6 +587,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="774f2d31-3e01-4b10-bc59-4c77373d4880" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32374486-2d69-476f-9a17-cedceccff96d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D2343B8A9FD24C4E9605B93F769D6676" ma:contentTypeVersion="18" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="053e41415755f7f1d5bd5e726ea9f2de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32374486-2d69-476f-9a17-cedceccff96d" xmlns:ns3="774f2d31-3e01-4b10-bc59-4c77373d4880" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba18532f951a6530eb2e6b98c9e48c11" ns2:_="" ns3:_="">
     <xsd:import namespace="32374486-2d69-476f-9a17-cedceccff96d"/>
@@ -841,28 +861,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="774f2d31-3e01-4b10-bc59-4c77373d4880" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32374486-2d69-476f-9a17-cedceccff96d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2554E80C-03A3-44DC-87C2-49638C0005DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F039FA2-17AB-47ED-AE0B-53FB08A310E6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,5 +870,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F039FA2-17AB-47ED-AE0B-53FB08A310E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2554E80C-03A3-44DC-87C2-49638C0005DF}"/>
 </file>